--- a/report.xlsx
+++ b/report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\EaglePerformanceTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Eagle-PerformanceTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6C6C49-5F9C-48E0-9593-369B09F8B2ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE0DFD8-9C66-4C52-A5B6-D7D6D4A457D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{5636E089-D1AE-4BF7-B106-E6A860D52A9B}"/>
+    <workbookView xWindow="-30828" yWindow="-2184" windowWidth="30936" windowHeight="16896" xr2:uid="{5636E089-D1AE-4BF7-B106-E6A860D52A9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,22 +53,22 @@
     <t>receiverEmail</t>
   </si>
   <si>
-    <t>C:\\workspace\\EaglePerformanceTest\\Reports\\</t>
-  </si>
-  <si>
-    <t>environment</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>EaglePerformanceTest</t>
   </si>
   <si>
-    <t>emk3#123456</t>
-  </si>
-  <si>
-    <t>lmsdulsara@gmail.com,liywe@orsted.dk</t>
+    <t>C:\\Users\\LIYWE\\OneDrive - Ørsted\\Reports\\</t>
+  </si>
+  <si>
+    <t>responseTimeSheetPath</t>
+  </si>
+  <si>
+    <t>C:\\workspace\\Eagle-PerformanceTest\\Reports\\PerformanceReport.xlsx</t>
+  </si>
+  <si>
+    <t>C:\\workspace\\Eagle-PerformanceTest\\Reports\\Development\\</t>
+  </si>
+  <si>
+    <t>C:\\workspace\\Eagle-PerformanceTest\\Reports\\Staging\\</t>
   </si>
 </sst>
 </file>
@@ -438,20 +438,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8635D5F1-D6F6-44B6-A644-995E1A046C80}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" customWidth="1"/>
     <col min="3" max="3" width="24.44140625" customWidth="1"/>
     <col min="4" max="4" width="18.109375" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="61.109375" customWidth="1"/>
+    <col min="6" max="6" width="62" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -471,41 +471,46 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{3FFEF200-CE3F-41DE-A5A2-A326F1A5596B}">
-      <formula1>"test,development,prod"</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="abcd@123456" xr:uid="{779639A4-39FA-4996-844B-862BC0735C5B}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{BB0294E5-D10B-4C8E-AE2D-253605F23F94}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{ECE678CD-6B46-430C-BBA3-868AA3A21F4E}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{ECE678CD-6B46-430C-BBA3-868AA3A21F4E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>